--- a/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/PostTypeLanguage.xlsx
+++ b/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/PostTypeLanguage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480\Desktop\MarketWatch\SSWebScraper\SSWebScraper\Data\SeedData\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11209830-F901-4B2F-9E3B-084F849A96F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB32E4-5508-4ACC-8794-8B4D3A972A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5340" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PostTypeId</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
   </si>
   <si>
     <t>transport</t>
@@ -357,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,11 +372,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -387,10 +381,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
